--- a/biology/Zoologie/Haplochromis_gigas/Haplochromis_gigas.xlsx
+++ b/biology/Zoologie/Haplochromis_gigas/Haplochromis_gigas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplochromis gigas est une espèce de poissons d'eau douce de la famille des Cichlidae endémique du lac Victoria.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Haplochromis gigas a été initialement décrite en 1998 par Ole Seehausen (d) et Elisabeth Lippitsch (d), sous le protonyme de Neochromis gigas, dans une publication coécrite avec Niels Bouton (d) et Heelen Zwennes (d)[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Haplochromis gigas a été initialement décrite en 1998 par Ole Seehausen (d) et Elisabeth Lippitsch (d), sous le protonyme de Neochromis gigas, dans une publication coécrite avec Niels Bouton (d) et Heelen Zwennes (d). 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Haplochromis gigas est uniquement présente dans le lac Victoria, à une profondeur maximale de 4 m[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Haplochromis gigas est uniquement présente dans le lac Victoria, à une profondeur maximale de 4 m.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haplochromis gigas peut mesurer jusqu'à 142 mm de longueur totale[3].
-C'est une espèce à incubation buccale où c'est généralement la femelle qui s'occupe des œufs, le mâle protégeant la zone[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haplochromis gigas peut mesurer jusqu'à 142 mm de longueur totale.
+C'est une espèce à incubation buccale où c'est généralement la femelle qui s'occupe des œufs, le mâle protégeant la zone.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du grec ancien γίγας, gígas, « géant », lui a été donné en référence à sa grande taille, comparativement aux autres espèces de Neochromis[2] (genre dans lequel ce poisson a été classé à l'origine).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du grec ancien γίγας, gígas, « géant », lui a été donné en référence à sa grande taille, comparativement aux autres espèces de Neochromis (genre dans lequel ce poisson a été classé à l'origine).
 </t>
         </is>
       </c>
